--- a/INDICADORES TRIBUTARIOS - BI.xlsx
+++ b/INDICADORES TRIBUTARIOS - BI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncorrea.SIJU\Dropbox\D.R\AÑO 2019\1. DATOS TRIBUTARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\powerbidemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D8705E-4B49-4BB9-96EA-C9C031478815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF97A17B-D535-4401-97D5-58CCA086BED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO TRIBUTARIA" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'INDICADORES TRIBUTARIOS'!$A$2:$K$177</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'INDICADORES TRIBUTARIOS'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -603,7 +603,7 @@
     <numFmt numFmtId="167" formatCode="0000"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +727,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -969,7 +977,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1138,60 +1146,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1199,12 +1153,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,6 +1215,67 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1274,10 +1283,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -1525,7 +1531,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1574,7 +1580,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1674,7 +1680,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1725,7 +1731,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1821,7 +1827,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222344800"/>
@@ -1875,7 +1881,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1969,7 +1975,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2115,7 +2121,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2250,7 +2256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="455698656"/>
@@ -2315,7 +2321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2338,7 +2344,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2482,7 +2488,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2659,7 +2665,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -2699,7 +2705,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2823,7 +2829,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="455699832"/>
@@ -2889,7 +2895,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2914,7 +2920,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3008,7 +3014,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -3154,7 +3160,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -3289,7 +3295,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456365696"/>
@@ -3354,7 +3360,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3377,7 +3383,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3555,7 +3561,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -3609,7 +3615,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -3683,7 +3689,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3806,7 +3812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456366872"/>
@@ -3872,7 +3878,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3897,7 +3903,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3991,7 +3997,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4137,7 +4143,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4272,7 +4278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456368048"/>
@@ -4337,7 +4343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4360,7 +4366,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4452,7 +4458,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4583,7 +4589,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4705,7 +4711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456096520"/>
@@ -4770,7 +4776,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4793,7 +4799,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4885,7 +4891,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -5023,7 +5029,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -5152,7 +5158,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456097696"/>
@@ -5217,7 +5223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5240,7 +5246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5473,7 +5479,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5596,7 +5602,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456098872"/>
@@ -5662,7 +5668,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5687,7 +5693,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5899,7 +5905,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6036,7 +6042,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456283032"/>
@@ -6106,7 +6112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6131,7 +6137,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6322,7 +6328,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6445,7 +6451,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456284600"/>
@@ -6511,7 +6517,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6536,7 +6542,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6667,7 +6673,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -6716,7 +6722,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6824,7 +6830,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -6873,7 +6879,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6985,7 +6991,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7264,7 +7270,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456285384"/>
@@ -7323,7 +7329,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7354,7 +7360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7465,7 +7471,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -7611,7 +7617,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -7746,7 +7752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456874248"/>
@@ -7811,7 +7817,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7834,7 +7840,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8026,7 +8032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456875424"/>
@@ -8099,7 +8105,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8137,7 +8143,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8389,7 +8395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8422,7 +8428,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8587,7 +8593,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8733,7 +8739,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8845,7 +8851,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -8895,7 +8901,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -8937,7 +8943,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9077,7 +9083,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9178,7 +9184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="457094888"/>
@@ -9238,7 +9244,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9263,7 +9269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9347,7 +9353,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -9401,7 +9407,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -9447,7 +9453,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9566,7 +9572,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222347152"/>
@@ -9621,7 +9627,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9704,7 +9710,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9872,7 +9878,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9976,7 +9982,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10001,7 +10007,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10084,7 +10090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10239,7 +10245,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10412,7 +10418,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10510,7 +10516,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10535,7 +10541,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10617,7 +10623,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10772,7 +10778,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10945,7 +10951,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11043,7 +11049,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11068,7 +11074,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11245,7 +11251,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11417,7 +11423,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11534,7 +11540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="455440760"/>
@@ -11589,7 +11595,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11868,7 +11874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="455441936"/>
@@ -11927,7 +11933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11958,7 +11964,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12429,7 +12435,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12556,7 +12562,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="455697480"/>
@@ -12616,7 +12622,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12649,7 +12655,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -29728,7 +29734,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabla dinámica4" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabla dinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="N5:R92" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
@@ -30401,7 +30407,7 @@
     <dataField name="Suma de VALOR" fld="6" baseField="5" baseItem="1" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -30680,14 +30686,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF006666"/>
   </sheetPr>
   <dimension ref="A1:I232"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30732,7 +30738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>183</v>
       </c>
@@ -30761,7 +30767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>183</v>
       </c>
@@ -30790,7 +30796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>183</v>
       </c>
@@ -30819,7 +30825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -30848,7 +30854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>183</v>
       </c>
@@ -30877,7 +30883,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>183</v>
       </c>
@@ -30906,7 +30912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>183</v>
       </c>
@@ -30935,7 +30941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>183</v>
       </c>
@@ -30964,7 +30970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>183</v>
       </c>
@@ -30993,7 +30999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>183</v>
       </c>
@@ -31020,7 +31026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>183</v>
       </c>
@@ -31047,7 +31053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>183</v>
       </c>
@@ -31074,7 +31080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>183</v>
       </c>
@@ -31101,7 +31107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>183</v>
       </c>
@@ -31128,7 +31134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>183</v>
       </c>
@@ -31157,7 +31163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>183</v>
       </c>
@@ -31186,7 +31192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>183</v>
       </c>
@@ -31215,7 +31221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>183</v>
       </c>
@@ -31244,7 +31250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>183</v>
       </c>
@@ -31271,7 +31277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>183</v>
       </c>
@@ -31300,7 +31306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>183</v>
       </c>
@@ -31329,7 +31335,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>183</v>
       </c>
@@ -31358,7 +31364,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>183</v>
       </c>
@@ -31385,7 +31391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>183</v>
       </c>
@@ -31412,7 +31418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>183</v>
       </c>
@@ -31441,7 +31447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>183</v>
       </c>
@@ -31470,7 +31476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>183</v>
       </c>
@@ -31497,7 +31503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>183</v>
       </c>
@@ -31524,7 +31530,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>183</v>
       </c>
@@ -31551,7 +31557,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>183</v>
       </c>
@@ -31580,7 +31586,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>183</v>
       </c>
@@ -31607,7 +31613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>183</v>
       </c>
@@ -31636,7 +31642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>183</v>
       </c>
@@ -31665,7 +31671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>183</v>
       </c>
@@ -31694,7 +31700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>183</v>
       </c>
@@ -31721,7 +31727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>183</v>
       </c>
@@ -31748,7 +31754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>183</v>
       </c>
@@ -31775,7 +31781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>183</v>
       </c>
@@ -31804,7 +31810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>183</v>
       </c>
@@ -31831,7 +31837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>183</v>
       </c>
@@ -31858,7 +31864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>183</v>
       </c>
@@ -31885,7 +31891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>183</v>
       </c>
@@ -31912,7 +31918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>183</v>
       </c>
@@ -31939,7 +31945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>183</v>
       </c>
@@ -31966,7 +31972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>183</v>
       </c>
@@ -31993,7 +31999,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>183</v>
       </c>
@@ -32078,7 +32084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>183</v>
       </c>
@@ -32107,7 +32113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>183</v>
       </c>
@@ -32136,7 +32142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>183</v>
       </c>
@@ -32163,7 +32169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>183</v>
       </c>
@@ -32192,7 +32198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>183</v>
       </c>
@@ -32221,7 +32227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>183</v>
       </c>
@@ -32250,7 +32256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>183</v>
       </c>
@@ -32277,7 +32283,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -32304,7 +32310,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>183</v>
       </c>
@@ -32331,7 +32337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>183</v>
       </c>
@@ -32360,7 +32366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>183</v>
       </c>
@@ -32387,7 +32393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>183</v>
       </c>
@@ -32416,7 +32422,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>183</v>
       </c>
@@ -32443,7 +32449,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>183</v>
       </c>
@@ -32470,7 +32476,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>183</v>
       </c>
@@ -32497,7 +32503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>183</v>
       </c>
@@ -32524,7 +32530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>183</v>
       </c>
@@ -32553,7 +32559,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>183</v>
       </c>
@@ -32582,7 +32588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>183</v>
       </c>
@@ -32609,7 +32615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>183</v>
       </c>
@@ -32638,7 +32644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>183</v>
       </c>
@@ -32665,7 +32671,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>183</v>
       </c>
@@ -32692,7 +32698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>183</v>
       </c>
@@ -32721,7 +32727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>183</v>
       </c>
@@ -32750,7 +32756,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>183</v>
       </c>
@@ -32779,7 +32785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>183</v>
       </c>
@@ -32806,7 +32812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>183</v>
       </c>
@@ -32835,7 +32841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>183</v>
       </c>
@@ -32862,7 +32868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>183</v>
       </c>
@@ -32891,7 +32897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>183</v>
       </c>
@@ -32920,7 +32926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>183</v>
       </c>
@@ -32949,7 +32955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>183</v>
       </c>
@@ -32978,7 +32984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>183</v>
       </c>
@@ -33007,7 +33013,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>183</v>
       </c>
@@ -33036,7 +33042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>183</v>
       </c>
@@ -33065,7 +33071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>183</v>
       </c>
@@ -33094,7 +33100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>183</v>
       </c>
@@ -33123,7 +33129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>183</v>
       </c>
@@ -33150,7 +33156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>183</v>
       </c>
@@ -33177,7 +33183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>183</v>
       </c>
@@ -33204,7 +33210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>183</v>
       </c>
@@ -33231,7 +33237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>183</v>
       </c>
@@ -33258,7 +33264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>183</v>
       </c>
@@ -33287,7 +33293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>183</v>
       </c>
@@ -33316,7 +33322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>183</v>
       </c>
@@ -33345,7 +33351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>183</v>
       </c>
@@ -33374,7 +33380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>183</v>
       </c>
@@ -33401,7 +33407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>183</v>
       </c>
@@ -33430,7 +33436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>183</v>
       </c>
@@ -33459,7 +33465,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>183</v>
       </c>
@@ -33488,7 +33494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>183</v>
       </c>
@@ -33515,7 +33521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>183</v>
       </c>
@@ -33542,7 +33548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>183</v>
       </c>
@@ -33571,7 +33577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>183</v>
       </c>
@@ -33600,7 +33606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>183</v>
       </c>
@@ -33627,7 +33633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>183</v>
       </c>
@@ -33656,7 +33662,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>183</v>
       </c>
@@ -33683,7 +33689,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>183</v>
       </c>
@@ -33712,7 +33718,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>183</v>
       </c>
@@ -33739,7 +33745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>183</v>
       </c>
@@ -33766,7 +33772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>183</v>
       </c>
@@ -33793,7 +33799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>183</v>
       </c>
@@ -33822,7 +33828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>183</v>
       </c>
@@ -33849,7 +33855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>183</v>
       </c>
@@ -33876,7 +33882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>183</v>
       </c>
@@ -33903,7 +33909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>183</v>
       </c>
@@ -33932,7 +33938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>183</v>
       </c>
@@ -33959,7 +33965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>183</v>
       </c>
@@ -33986,7 +33992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>183</v>
       </c>
@@ -34013,7 +34019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>183</v>
       </c>
@@ -34040,7 +34046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>183</v>
       </c>
@@ -34067,7 +34073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>183</v>
       </c>
@@ -34094,7 +34100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>183</v>
       </c>
@@ -34121,7 +34127,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>183</v>
       </c>
@@ -34206,7 +34212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>183</v>
       </c>
@@ -34235,7 +34241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>183</v>
       </c>
@@ -34264,7 +34270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>183</v>
       </c>
@@ -34291,7 +34297,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>183</v>
       </c>
@@ -34320,7 +34326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>183</v>
       </c>
@@ -34349,7 +34355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>183</v>
       </c>
@@ -34378,7 +34384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>183</v>
       </c>
@@ -34405,7 +34411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>183</v>
       </c>
@@ -34432,7 +34438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="134" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>183</v>
       </c>
@@ -34459,7 +34465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>183</v>
       </c>
@@ -34488,7 +34494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>183</v>
       </c>
@@ -34515,7 +34521,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="137" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>183</v>
       </c>
@@ -34544,7 +34550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>183</v>
       </c>
@@ -34571,7 +34577,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="139" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>183</v>
       </c>
@@ -34600,7 +34606,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>183</v>
       </c>
@@ -34627,7 +34633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>183</v>
       </c>
@@ -34656,7 +34662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>183</v>
       </c>
@@ -34685,7 +34691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>183</v>
       </c>
@@ -34714,7 +34720,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>183</v>
       </c>
@@ -34741,7 +34747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>183</v>
       </c>
@@ -34770,7 +34776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>183</v>
       </c>
@@ -34799,7 +34805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>183</v>
       </c>
@@ -34826,7 +34832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>183</v>
       </c>
@@ -34855,7 +34861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>183</v>
       </c>
@@ -34884,7 +34890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="150" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>183</v>
       </c>
@@ -34913,7 +34919,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>183</v>
       </c>
@@ -34940,7 +34946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>183</v>
       </c>
@@ -34969,7 +34975,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="153" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>183</v>
       </c>
@@ -34996,7 +35002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>183</v>
       </c>
@@ -35025,7 +35031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>183</v>
       </c>
@@ -35054,7 +35060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>183</v>
       </c>
@@ -35083,7 +35089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>183</v>
       </c>
@@ -35112,7 +35118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>183</v>
       </c>
@@ -35141,7 +35147,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>183</v>
       </c>
@@ -35168,7 +35174,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>183</v>
       </c>
@@ -35197,7 +35203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>183</v>
       </c>
@@ -35226,7 +35232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>183</v>
       </c>
@@ -35255,7 +35261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>183</v>
       </c>
@@ -35284,7 +35290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>183</v>
       </c>
@@ -35313,7 +35319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>183</v>
       </c>
@@ -35340,7 +35346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>183</v>
       </c>
@@ -35369,7 +35375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>183</v>
       </c>
@@ -35398,7 +35404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>183</v>
       </c>
@@ -35425,7 +35431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>183</v>
       </c>
@@ -35452,7 +35458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>183</v>
       </c>
@@ -35479,7 +35485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>183</v>
       </c>
@@ -35508,7 +35514,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>183</v>
       </c>
@@ -35535,7 +35541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>183</v>
       </c>
@@ -35562,7 +35568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>183</v>
       </c>
@@ -35591,7 +35597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>183</v>
       </c>
@@ -35620,7 +35626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>183</v>
       </c>
@@ -35647,7 +35653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>183</v>
       </c>
@@ -35676,7 +35682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="178" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>183</v>
       </c>
@@ -35703,7 +35709,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="179" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>183</v>
       </c>
@@ -35732,7 +35738,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>183</v>
       </c>
@@ -35759,7 +35765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>183</v>
       </c>
@@ -35786,7 +35792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>183</v>
       </c>
@@ -35813,7 +35819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>183</v>
       </c>
@@ -35842,7 +35848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>183</v>
       </c>
@@ -35869,7 +35875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>183</v>
       </c>
@@ -35896,7 +35902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>183</v>
       </c>
@@ -35925,7 +35931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>183</v>
       </c>
@@ -35954,7 +35960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="188" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>183</v>
       </c>
@@ -35983,7 +35989,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>183</v>
       </c>
@@ -36012,7 +36018,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>183</v>
       </c>
@@ -36039,7 +36045,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>183</v>
       </c>
@@ -36066,7 +36072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>183</v>
       </c>
@@ -36118,8 +36124,8 @@
       <c r="H193" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="I193" s="65" t="s">
-        <v>140</v>
+      <c r="I193" s="159" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -36151,7 +36157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="195" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>183</v>
       </c>
@@ -36178,7 +36184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>183</v>
       </c>
@@ -36205,7 +36211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>183</v>
       </c>
@@ -36234,7 +36240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>183</v>
       </c>
@@ -36261,7 +36267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>183</v>
       </c>
@@ -36290,7 +36296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>183</v>
       </c>
@@ -36317,7 +36323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>183</v>
       </c>
@@ -36344,7 +36350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>183</v>
       </c>
@@ -36373,7 +36379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="203" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>183</v>
       </c>
@@ -36402,7 +36408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>183</v>
       </c>
@@ -36429,7 +36435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="205" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>183</v>
       </c>
@@ -36456,7 +36462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>183</v>
       </c>
@@ -36485,7 +36491,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>183</v>
       </c>
@@ -36514,7 +36520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="208" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>183</v>
       </c>
@@ -36543,7 +36549,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="209" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>183</v>
       </c>
@@ -36570,7 +36576,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="210" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>183</v>
       </c>
@@ -36599,7 +36605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>183</v>
       </c>
@@ -36628,7 +36634,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="212" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>183</v>
       </c>
@@ -36655,7 +36661,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="213" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>183</v>
       </c>
@@ -36682,7 +36688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="214" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>183</v>
       </c>
@@ -36711,7 +36717,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="215" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>183</v>
       </c>
@@ -36738,7 +36744,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>183</v>
       </c>
@@ -36767,7 +36773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>183</v>
       </c>
@@ -36794,7 +36800,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="218" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>183</v>
       </c>
@@ -36823,7 +36829,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="219" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>183</v>
       </c>
@@ -36850,7 +36856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>183</v>
       </c>
@@ -36879,7 +36885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>183</v>
       </c>
@@ -36908,7 +36914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>183</v>
       </c>
@@ -36937,7 +36943,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="223" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>183</v>
       </c>
@@ -36964,7 +36970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>183</v>
       </c>
@@ -36993,7 +36999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>183</v>
       </c>
@@ -37022,7 +37028,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="226" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>183</v>
       </c>
@@ -37049,7 +37055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>183</v>
       </c>
@@ -37078,7 +37084,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="228" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>183</v>
       </c>
@@ -37107,7 +37113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="229" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>183</v>
       </c>
@@ -37136,7 +37142,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="230" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>183</v>
       </c>
@@ -37163,7 +37169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="231" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>183</v>
       </c>
@@ -37192,7 +37198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="232" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>183</v>
       </c>
@@ -37220,88 +37226,78 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I232" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I232" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="RENTA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E79:E153">
-    <cfRule type="cellIs" dxfId="14" priority="2009" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2009" operator="equal">
       <formula>2018</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E77">
-    <cfRule type="cellIs" dxfId="13" priority="2008" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2008" operator="equal">
       <formula>2018</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E77">
-    <cfRule type="cellIs" dxfId="12" priority="2007" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2007" operator="equal">
       <formula>2017</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E153">
-    <cfRule type="cellIs" dxfId="11" priority="2006" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2006" operator="equal">
       <formula>2018</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E153">
-    <cfRule type="cellIs" dxfId="10" priority="2005" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2005" operator="equal">
       <formula>2017</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155:E229">
-    <cfRule type="cellIs" dxfId="9" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="334" operator="equal">
       <formula>2018</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E229">
-    <cfRule type="cellIs" dxfId="8" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="333" operator="equal">
       <formula>2018</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E229">
-    <cfRule type="cellIs" dxfId="7" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="332" operator="equal">
       <formula>2017</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230:E232">
-    <cfRule type="cellIs" dxfId="6" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="331" operator="equal">
       <formula>2018</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230:E232">
-    <cfRule type="cellIs" dxfId="5" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="330" operator="equal">
       <formula>2018</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230:E232">
-    <cfRule type="cellIs" dxfId="4" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="329" operator="equal">
       <formula>2017</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D154:D232" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F232" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D154:D232</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E232</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F232</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -37309,7 +37305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -37346,35 +37342,35 @@
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="145" t="str">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="125" t="str">
         <f>+O3</f>
         <v>PEPITO PEREZ</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
       <c r="N3" s="5" t="s">
         <v>1</v>
       </c>
@@ -37383,32 +37379,32 @@
       </c>
     </row>
     <row r="4" spans="1:41" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="150"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
     </row>
     <row r="5" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="153"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="133"/>
       <c r="N5" s="5" t="s">
         <v>88</v>
       </c>
@@ -37417,17 +37413,17 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="154"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
       <c r="N6" s="5" t="s">
         <v>4</v>
       </c>
@@ -37445,19 +37441,19 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="120"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="146"/>
       <c r="N7" t="s">
         <v>5</v>
       </c>
@@ -37489,21 +37485,21 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="131" t="s">
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="133"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
       <c r="O8" t="s">
         <v>16</v>
       </c>
@@ -37541,18 +37537,18 @@
       <c r="E9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="157">
+      <c r="F9" s="137">
         <v>2017</v>
       </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157">
+      <c r="G9" s="137"/>
+      <c r="H9" s="137">
         <v>2018</v>
       </c>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157">
+      <c r="I9" s="137"/>
+      <c r="J9" s="137">
         <v>2019</v>
       </c>
-      <c r="K9" s="158"/>
+      <c r="K9" s="138"/>
       <c r="O9" t="s">
         <v>17</v>
       </c>
@@ -37587,21 +37583,21 @@
       <c r="E10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="139">
         <f>+P7</f>
         <v>24889542000</v>
       </c>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137">
+      <c r="G10" s="139"/>
+      <c r="H10" s="139">
         <f>+Q7</f>
         <v>25075152000</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137">
+      <c r="I10" s="139"/>
+      <c r="J10" s="139">
         <f>+R7</f>
         <v>25687875000</v>
       </c>
-      <c r="K10" s="138"/>
+      <c r="K10" s="140"/>
       <c r="N10" t="s">
         <v>12</v>
       </c>
@@ -37618,12 +37614,12 @@
         <v>396689000</v>
       </c>
       <c r="S10" s="6"/>
-      <c r="U10" s="134" t="s">
+      <c r="U10" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="136"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="118"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="11" t="s">
         <v>99</v>
@@ -37651,21 +37647,21 @@
       <c r="E11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="137">
+      <c r="F11" s="139">
         <f>+P8</f>
         <v>5758065000</v>
       </c>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137">
+      <c r="G11" s="139"/>
+      <c r="H11" s="139">
         <f>+Q8</f>
         <v>5399842000</v>
       </c>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137">
+      <c r="I11" s="139"/>
+      <c r="J11" s="139">
         <f>+R8</f>
         <v>5056235000</v>
       </c>
-      <c r="K11" s="138"/>
+      <c r="K11" s="140"/>
       <c r="O11" t="s">
         <v>129</v>
       </c>
@@ -38127,18 +38123,18 @@
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="U18" s="134" t="s">
+      <c r="U18" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="134" t="s">
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="136"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="118"/>
       <c r="AD18" s="9" t="s">
         <v>98</v>
       </c>
@@ -38489,19 +38485,19 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="143"/>
       <c r="O23" t="s">
         <v>132</v>
       </c>
@@ -38677,18 +38673,18 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="U26" s="134" t="s">
+      <c r="U26" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="136"/>
-      <c r="Y26" s="134" t="s">
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="136"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="118"/>
       <c r="AD26" s="9" t="s">
         <v>96</v>
       </c>
@@ -39242,12 +39238,12 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="U35" s="121" t="s">
+      <c r="U35" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="123"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="149"/>
     </row>
     <row r="36" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
@@ -39286,19 +39282,19 @@
       </c>
     </row>
     <row r="37" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="131" t="s">
+      <c r="A37" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="133"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143"/>
       <c r="O37" t="s">
         <v>45</v>
       </c>
@@ -39382,12 +39378,12 @@
         <v>103550000</v>
       </c>
       <c r="S39" s="6"/>
-      <c r="U39" s="121" t="s">
+      <c r="U39" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="123"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="149"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
@@ -39858,19 +39854,19 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="131" t="s">
+      <c r="A51" s="141" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="132"/>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="133"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="143"/>
       <c r="O51" t="s">
         <v>23</v>
       </c>
@@ -39953,19 +39949,19 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
-      <c r="U53" s="121" t="s">
+      <c r="U53" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="V53" s="122"/>
-      <c r="W53" s="122"/>
-      <c r="X53" s="123"/>
-      <c r="Y53" s="129" t="s">
+      <c r="V53" s="148"/>
+      <c r="W53" s="148"/>
+      <c r="X53" s="149"/>
+      <c r="Y53" s="150" t="s">
         <v>172</v>
       </c>
-      <c r="Z53" s="130"/>
-      <c r="AA53" s="130"/>
-      <c r="AB53" s="130"/>
-      <c r="AC53" s="130"/>
+      <c r="Z53" s="151"/>
+      <c r="AA53" s="151"/>
+      <c r="AB53" s="151"/>
+      <c r="AC53" s="151"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
@@ -40415,12 +40411,12 @@
         <v>4010032000</v>
       </c>
       <c r="S63" s="6"/>
-      <c r="U63" s="121" t="s">
+      <c r="U63" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="V63" s="122"/>
-      <c r="W63" s="122"/>
-      <c r="X63" s="123"/>
+      <c r="V63" s="148"/>
+      <c r="W63" s="148"/>
+      <c r="X63" s="149"/>
     </row>
     <row r="64" spans="1:29" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
@@ -40459,19 +40455,19 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="141" t="s">
         <v>179</v>
       </c>
-      <c r="B65" s="132"/>
-      <c r="C65" s="132"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="133"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="142"/>
+      <c r="J65" s="142"/>
+      <c r="K65" s="143"/>
       <c r="O65" t="s">
         <v>62</v>
       </c>
@@ -40645,12 +40641,12 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="U70" s="121" t="s">
+      <c r="U70" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="V70" s="122"/>
-      <c r="W70" s="122"/>
-      <c r="X70" s="123"/>
+      <c r="V70" s="148"/>
+      <c r="W70" s="148"/>
+      <c r="X70" s="149"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
@@ -40838,12 +40834,12 @@
         <v>713335000</v>
       </c>
       <c r="S76" s="6"/>
-      <c r="U76" s="121" t="s">
+      <c r="U76" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="V76" s="122"/>
-      <c r="W76" s="122"/>
-      <c r="X76" s="123"/>
+      <c r="V76" s="148"/>
+      <c r="W76" s="148"/>
+      <c r="X76" s="149"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
@@ -40918,19 +40914,19 @@
       </c>
     </row>
     <row r="79" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="131" t="s">
+      <c r="A79" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="132"/>
-      <c r="C79" s="132"/>
-      <c r="D79" s="132"/>
-      <c r="E79" s="132"/>
-      <c r="F79" s="132"/>
-      <c r="G79" s="132"/>
-      <c r="H79" s="132"/>
-      <c r="I79" s="132"/>
-      <c r="J79" s="132"/>
-      <c r="K79" s="133"/>
+      <c r="B79" s="142"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="142"/>
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="142"/>
+      <c r="J79" s="142"/>
+      <c r="K79" s="143"/>
       <c r="O79" t="s">
         <v>74</v>
       </c>
@@ -41250,21 +41246,21 @@
       <c r="R92" s="6"/>
     </row>
     <row r="93" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="116" t="s">
+      <c r="A93" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="117"/>
-      <c r="C93" s="117"/>
-      <c r="D93" s="117"/>
-      <c r="E93" s="125" t="s">
+      <c r="B93" s="154"/>
+      <c r="C93" s="154"/>
+      <c r="D93" s="154"/>
+      <c r="E93" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
-      <c r="J93" s="125"/>
-      <c r="K93" s="126"/>
+      <c r="F93" s="156"/>
+      <c r="G93" s="156"/>
+      <c r="H93" s="156"/>
+      <c r="I93" s="156"/>
+      <c r="J93" s="156"/>
+      <c r="K93" s="157"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="28"/>
@@ -41436,19 +41432,19 @@
       <c r="K106" s="14"/>
     </row>
     <row r="107" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="127" t="s">
+      <c r="A107" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="B107" s="125"/>
-      <c r="C107" s="125"/>
-      <c r="D107" s="125"/>
-      <c r="E107" s="125"/>
-      <c r="F107" s="125"/>
-      <c r="G107" s="125"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="125"/>
-      <c r="J107" s="125"/>
-      <c r="K107" s="126"/>
+      <c r="B107" s="156"/>
+      <c r="C107" s="156"/>
+      <c r="D107" s="156"/>
+      <c r="E107" s="156"/>
+      <c r="F107" s="156"/>
+      <c r="G107" s="156"/>
+      <c r="H107" s="156"/>
+      <c r="I107" s="156"/>
+      <c r="J107" s="156"/>
+      <c r="K107" s="157"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="28"/>
@@ -41458,10 +41454,10 @@
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
-      <c r="H108" s="128" t="s">
+      <c r="H108" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="I108" s="128"/>
+      <c r="I108" s="152"/>
       <c r="J108" s="19"/>
       <c r="K108" s="20"/>
     </row>
@@ -41473,11 +41469,11 @@
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
-      <c r="H109" s="128">
+      <c r="H109" s="152">
         <f>+AC55+AC56</f>
         <v>2684775000</v>
       </c>
-      <c r="I109" s="128"/>
+      <c r="I109" s="152"/>
       <c r="J109" s="108"/>
       <c r="K109" s="109"/>
     </row>
@@ -41638,19 +41634,19 @@
       <c r="K121" s="14"/>
     </row>
     <row r="122" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="116" t="s">
+      <c r="A122" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="B122" s="117"/>
-      <c r="C122" s="117"/>
-      <c r="D122" s="117"/>
-      <c r="E122" s="117"/>
-      <c r="F122" s="117"/>
-      <c r="G122" s="117"/>
-      <c r="H122" s="117"/>
-      <c r="I122" s="117"/>
-      <c r="J122" s="117"/>
-      <c r="K122" s="118"/>
+      <c r="B122" s="154"/>
+      <c r="C122" s="154"/>
+      <c r="D122" s="154"/>
+      <c r="E122" s="154"/>
+      <c r="F122" s="154"/>
+      <c r="G122" s="154"/>
+      <c r="H122" s="154"/>
+      <c r="I122" s="154"/>
+      <c r="J122" s="154"/>
+      <c r="K122" s="155"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
@@ -41952,21 +41948,21 @@
       <c r="K145" s="14"/>
     </row>
     <row r="146" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="124" t="s">
+      <c r="A146" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="B146" s="119"/>
-      <c r="C146" s="119"/>
-      <c r="D146" s="119"/>
-      <c r="E146" s="119" t="s">
+      <c r="B146" s="145"/>
+      <c r="C146" s="145"/>
+      <c r="D146" s="145"/>
+      <c r="E146" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="F146" s="119"/>
-      <c r="G146" s="119"/>
-      <c r="H146" s="119"/>
-      <c r="I146" s="119"/>
-      <c r="J146" s="119"/>
-      <c r="K146" s="120"/>
+      <c r="F146" s="145"/>
+      <c r="G146" s="145"/>
+      <c r="H146" s="145"/>
+      <c r="I146" s="145"/>
+      <c r="J146" s="145"/>
+      <c r="K146" s="146"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="55"/>
@@ -42164,21 +42160,21 @@
       <c r="K161" s="14"/>
     </row>
     <row r="162" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="116" t="s">
+      <c r="A162" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="117"/>
-      <c r="C162" s="117"/>
-      <c r="D162" s="118"/>
-      <c r="E162" s="119" t="s">
+      <c r="B162" s="154"/>
+      <c r="C162" s="154"/>
+      <c r="D162" s="155"/>
+      <c r="E162" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="F162" s="119"/>
-      <c r="G162" s="119"/>
-      <c r="H162" s="119"/>
-      <c r="I162" s="119"/>
-      <c r="J162" s="119"/>
-      <c r="K162" s="120"/>
+      <c r="F162" s="145"/>
+      <c r="G162" s="145"/>
+      <c r="H162" s="145"/>
+      <c r="I162" s="145"/>
+      <c r="J162" s="145"/>
+      <c r="K162" s="146"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="55"/>
@@ -42382,6 +42378,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="E162:K162"/>
+    <mergeCell ref="U76:X76"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="E146:K146"/>
+    <mergeCell ref="E93:K93"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A107:K107"/>
+    <mergeCell ref="A122:K122"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="U63:X63"/>
+    <mergeCell ref="U70:X70"/>
+    <mergeCell ref="Y53:AC53"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="Y18:AB18"/>
     <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="A2:D4"/>
@@ -42398,38 +42420,12 @@
     <mergeCell ref="E8:K8"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="U10:X10"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U63:X63"/>
-    <mergeCell ref="U70:X70"/>
-    <mergeCell ref="Y53:AC53"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="E162:K162"/>
-    <mergeCell ref="U76:X76"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="E146:K146"/>
-    <mergeCell ref="E93:K93"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A107:K107"/>
-    <mergeCell ref="A122:K122"/>
-    <mergeCell ref="H108:I108"/>
   </mergeCells>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
